--- a/stairDefinitions.xlsx
+++ b/stairDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yimin\OneDrive\Documents\R\sex-differences-in-motion-perception\psychopy\contrast_sensitivity_task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/github/sex-diffs-abramov-2012-replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765DEC22-7B7B-4F43-ACEE-2A617E5682D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3B679-96A3-7D4A-8A71-88F220D823E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21900" yWindow="8580" windowWidth="23180" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>label</t>
   </si>
@@ -33,9 +33,6 @@
     <t>startVal</t>
   </si>
   <si>
-    <t>stepSizes</t>
-  </si>
-  <si>
     <t>maxVal</t>
   </si>
   <si>
@@ -57,7 +54,25 @@
     <t>sf_1.2_tf_4</t>
   </si>
   <si>
-    <t>[4,2,2,1]</t>
+    <t>stepType</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>pThreshold</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>grain</t>
   </si>
 </sst>
 </file>
@@ -454,18 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="273" zoomScaleNormal="273" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,33 +488,48 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -513,14 +543,29 @@
       <c r="F2">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>0.82</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>3.5</v>
+      </c>
+      <c r="J2">
+        <v>0.01</v>
+      </c>
+      <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
+        <v>0.01</v>
+      </c>
+      <c r="M2">
+        <v>1E-10</v>
+      </c>
+      <c r="N2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/stairDefinitions.xlsx
+++ b/stairDefinitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/github/sex-diffs-abramov-2012-replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B3B679-96A3-7D4A-8A71-88F220D823E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB288BB-9811-554B-B112-30B7F0273248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21900" yWindow="8580" windowWidth="23180" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26380" yWindow="7600" windowWidth="23180" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>label</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>grain</t>
+  </si>
+  <si>
+    <t>[4,2,2,1]</t>
+  </si>
+  <si>
+    <t>stepSizes</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,7 +486,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,25 +512,28 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -549,22 +558,25 @@
       <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2">
         <v>3.5</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.01</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.01</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1E-10</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1</v>
       </c>
     </row>

--- a/stairDefinitions.xlsx
+++ b/stairDefinitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/github/sex-diffs-abramov-2012-replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB288BB-9811-554B-B112-30B7F0273248}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB65E33-25DB-4E48-9CD9-C1FD0625444C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="7600" windowWidth="23180" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>label</t>
   </si>
@@ -51,9 +51,6 @@
     <t>startValSd</t>
   </si>
   <si>
-    <t>sf_1.2_tf_4</t>
-  </si>
-  <si>
     <t>stepType</t>
   </si>
   <si>
@@ -75,10 +72,7 @@
     <t>grain</t>
   </si>
   <si>
-    <t>[4,2,2,1]</t>
-  </si>
-  <si>
-    <t>stepSizes</t>
+    <t>sf_12_tf_4</t>
   </si>
 </sst>
 </file>
@@ -475,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +480,7 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -506,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -524,18 +518,15 @@
         <v>14</v>
       </c>
       <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -544,10 +535,10 @@
         <v>0.2</v>
       </c>
       <c r="D2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -556,27 +547,24 @@
         <v>0.82</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="I2">
+        <v>3.5</v>
       </c>
       <c r="J2">
-        <v>3.5</v>
+        <v>0.01</v>
       </c>
       <c r="K2">
+        <v>0.5</v>
+      </c>
+      <c r="L2">
         <v>0.01</v>
       </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>1E-10</v>
       </c>
       <c r="N2">
-        <v>1E-10</v>
-      </c>
-      <c r="O2">
         <v>1</v>
       </c>
     </row>

--- a/stairDefinitions.xlsx
+++ b/stairDefinitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/github/sex-diffs-abramov-2012-replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB65E33-25DB-4E48-9CD9-C1FD0625444C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42ACF77-473C-4B43-8E7F-134F70574415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="7600" windowWidth="23180" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,13 +529,13 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0.2</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="E2">
         <v>12</v>

--- a/stairDefinitions.xlsx
+++ b/stairDefinitions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/github/sex-diffs-abramov-2012-replication/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/Documents/github/sex-diffs-abramov-2012-replication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42ACF77-473C-4B43-8E7F-134F70574415}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE603D34-32ED-D245-8763-78B90C990D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26380" yWindow="7600" windowWidth="23180" windowHeight="18280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C2">
         <v>0.2</v>
